--- a/Reporte Actividades/2023/1.Enero/9 ene.xlsx
+++ b/Reporte Actividades/2023/1.Enero/9 ene.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23268" windowHeight="12720"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23265" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="FORMATO DE CONTROL DE ACTIVIDAD" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t xml:space="preserve">MA- MEJORAS Y MANTENIMIENTO DE APLICACIONES </t>
   </si>
@@ -533,6 +533,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,9 +555,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2067,40 +2067,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="3" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" customWidth="1"/>
-    <col min="14" max="14" width="33.21875" customWidth="1"/>
-    <col min="15" max="16" width="11.44140625" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="33.28515625" customWidth="1"/>
+    <col min="15" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
     <col min="19" max="19" width="6" customWidth="1"/>
-    <col min="20" max="20" width="6.21875" customWidth="1"/>
-    <col min="21" max="21" width="8.5546875" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" customWidth="1"/>
     <col min="22" max="22" width="20" customWidth="1"/>
     <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="6.5546875" customWidth="1"/>
-    <col min="25" max="25" width="9.77734375" customWidth="1"/>
-    <col min="26" max="26" width="12.5546875" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" customWidth="1"/>
     <col min="27" max="27" width="7" customWidth="1"/>
-    <col min="28" max="28" width="6.5546875" customWidth="1"/>
+    <col min="28" max="28" width="6.5703125" customWidth="1"/>
     <col min="29" max="29" width="10" customWidth="1"/>
-    <col min="30" max="30" width="26.5546875" customWidth="1"/>
+    <col min="30" max="30" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="23.25" customHeight="1">
@@ -2426,9 +2426,15 @@
       <c r="J7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="K7" s="8">
+        <v>100</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -2449,7 +2455,7 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="1:30" ht="82.8" customHeight="1">
+    <row r="8" spans="1:30" ht="82.9" customHeight="1">
       <c r="A8" s="21"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2559,11 +2565,11 @@
       <c r="G11" s="8"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="10"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="34"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
@@ -2581,7 +2587,7 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" ht="103.8" customHeight="1">
+    <row r="12" spans="1:30" ht="103.9" customHeight="1">
       <c r="A12" s="21"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -2591,11 +2597,11 @@
       <c r="G12" s="8"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="39"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="11"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="34"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -2613,7 +2619,7 @@
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30" ht="58.8" customHeight="1">
+    <row r="13" spans="1:30" ht="58.9" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>3</v>
       </c>
@@ -2648,7 +2654,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="8"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="32"/>
+      <c r="Q13" s="33"/>
       <c r="R13" s="18"/>
       <c r="S13" s="10"/>
       <c r="T13" s="8"/>
@@ -2663,7 +2669,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
     </row>
-    <row r="14" spans="1:30" ht="143.4" customHeight="1">
+    <row r="14" spans="1:30" ht="143.44999999999999" customHeight="1">
       <c r="A14" s="23"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -2680,7 +2686,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="8"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="34"/>
       <c r="R14" s="19"/>
       <c r="S14" s="11"/>
       <c r="T14" s="8"/>
@@ -2761,8 +2767,8 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:50" ht="19.2" customHeight="1">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:50" ht="19.149999999999999" customHeight="1">
+      <c r="A17" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="12"/>
@@ -2783,8 +2789,12 @@
       <c r="O17" s="8">
         <v>100</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="P17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
@@ -2800,7 +2810,7 @@
       <c r="AD17" s="8"/>
     </row>
     <row r="18" spans="1:50" ht="91.5" customHeight="1">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="12"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2936,10 +2946,10 @@
       <c r="AX20" s="1"/>
     </row>
     <row r="21" spans="1:50">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2990,10 +3000,10 @@
       <c r="AX21" s="1"/>
     </row>
     <row r="22" spans="1:50">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3044,10 +3054,10 @@
       <c r="AX22" s="1"/>
     </row>
     <row r="23" spans="1:50">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
